--- a/Story 2.xlsx
+++ b/Story 2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.lamb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD3C508-AF09-4836-AB11-E72227DBBB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B4687-8CFA-462E-BB81-D94E399CC65C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AFAB324-1550-4C83-89F1-AC8E6236E4FD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5AFAB324-1550-4C83-89F1-AC8E6236E4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Pressure Acr" sheetId="2" r:id="rId2"/>
+    <sheet name="Pressure Arc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Date</t>
   </si>
@@ -273,7 +273,145 @@
     <t>Protag goes straight from Police station to guitarist's house</t>
   </si>
   <si>
-    <t>Exec dismisses guy, goes straight from office to guiatrist's house with a gun</t>
+    <t>Face to Face</t>
+  </si>
+  <si>
+    <t>Protag goes to Exec's office building and walks right in</t>
+  </si>
+  <si>
+    <t>Protag goes to hotel desk to ask them to call him a cab since he doesn't have a phone</t>
+  </si>
+  <si>
+    <t>Takes a cab to Exec's office building</t>
+  </si>
+  <si>
+    <t>Secretary is really confused and tells him he definitely shouldn't be here</t>
+  </si>
+  <si>
+    <t>Tells secretary he is here for his 11 AM appointment</t>
+  </si>
+  <si>
+    <t>Protag waits until Exec is free and then barges in to give him his laptop</t>
+  </si>
+  <si>
+    <t>Exec asks why he shouldn't call the police or beat protag</t>
+  </si>
+  <si>
+    <t>Protag tells him that he knows what he's done, but Exec doesn't understand</t>
+  </si>
+  <si>
+    <t>Protag hints that he knows about the guitarist and maybe about the singer</t>
+  </si>
+  <si>
+    <t>Exec decides to let him go if he won't walk</t>
+  </si>
+  <si>
+    <t>Protag leaves, but hints that he might talk anyway or that someone might find out</t>
+  </si>
+  <si>
+    <t>Exec sends one of his employees to follow Protag out the door</t>
+  </si>
+  <si>
+    <t>Meeting the Band</t>
+  </si>
+  <si>
+    <t>Protag purposely waits so that Exec's goon can follow him all the way to Santa Barbara</t>
+  </si>
+  <si>
+    <t>Exec tells his goon to run the license plate of Protag's car, which is insane</t>
+  </si>
+  <si>
+    <t>Protag makes it all the way to drummer's house and walks to the door</t>
+  </si>
+  <si>
+    <t>Exec's goon calls to tell boss where he is and that he asked for license plate and it's rental</t>
+  </si>
+  <si>
+    <t>Protag is greeted by a super drunk woman at the house and asks to come in</t>
+  </si>
+  <si>
+    <t>She says no, but she caves when Protag tells her that he knows about guitarist and singer</t>
+  </si>
+  <si>
+    <t>Drummer gets on the phone with bass player and tells her to come over</t>
+  </si>
+  <si>
+    <t>Protag sees the house is kind of a mess and knows bass player lives really close</t>
+  </si>
+  <si>
+    <t>Other girl arrives and her face looks washed out like she's used drugs all the time for years</t>
+  </si>
+  <si>
+    <t>Protag asks the both of them where he can find the guitarist</t>
+  </si>
+  <si>
+    <t>They get mad at him for asking and they don't like guitarist, apparently</t>
+  </si>
+  <si>
+    <t>They think she's sold out to the patriarchy by marrying even though she was abused before</t>
+  </si>
+  <si>
+    <t>Protag says that was two different men and he only cares about bringing down Exec</t>
+  </si>
+  <si>
+    <t>The girls blame Exec for making their lives into what they are now</t>
+  </si>
+  <si>
+    <t>They don't want to go after him because he's so powerful</t>
+  </si>
+  <si>
+    <t>Meeting Guitarist</t>
+  </si>
+  <si>
+    <t>Exec dismisses guy, goes straight from office to guiatrist's house with a knife</t>
+  </si>
+  <si>
+    <t>They eventually give Protag the address anyway and he leaves</t>
+  </si>
+  <si>
+    <t>Protag makes sure goon is still following him as he drives to Brentwood</t>
+  </si>
+  <si>
+    <t>He didn't know where guitarist lived because she got married to a religious liberty lawyer</t>
+  </si>
+  <si>
+    <t>He makes it to the house as the run is going down and walks to the door</t>
+  </si>
+  <si>
+    <t>Lawyer answers the door and won't let Protag in</t>
+  </si>
+  <si>
+    <t>Protag tells him he knows what Exec did to his wife</t>
+  </si>
+  <si>
+    <t>Lawyer goes white as a ghost and lets Protag in</t>
+  </si>
+  <si>
+    <t>Lawyer goes to get his wife and Protag hears whispers upstairs</t>
+  </si>
+  <si>
+    <t>She comes dowstairs and asks Protag if he's serious</t>
+  </si>
+  <si>
+    <t>He says he is and they all sit down to talk about what happened</t>
+  </si>
+  <si>
+    <t>Protag asks if Exec did the same thing to singer and if that's why she killed herself</t>
+  </si>
+  <si>
+    <t>Guitarist isn't sure singer killed herself, but she knew of abuse</t>
+  </si>
+  <si>
+    <t>Protag asks why she is so okay now even with what happened</t>
+  </si>
+  <si>
+    <t>Guitarist says she didn't let one thing define her and she improved herself</t>
+  </si>
+  <si>
+    <t>Protag leaves to go home and shakes the tail</t>
+  </si>
+  <si>
+    <t>Exec's goon calls Exec to say he lost him and he can't track a rental</t>
   </si>
 </sst>
 </file>
@@ -297,12 +435,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -317,10 +461,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F519987-1ACC-41ED-BEE3-01650209D780}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,9 +791,11 @@
     <col min="1" max="1" width="82.28515625" customWidth="1"/>
     <col min="3" max="3" width="82.28515625" customWidth="1"/>
     <col min="5" max="5" width="82.28515625" customWidth="1"/>
+    <col min="7" max="7" width="82.28515625" customWidth="1"/>
+    <col min="9" max="9" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,8 +805,11 @@
       <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -669,8 +819,11 @@
       <c r="E2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -680,8 +833,11 @@
       <c r="E3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -691,8 +847,11 @@
       <c r="E4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -702,8 +861,11 @@
       <c r="E5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -713,8 +875,11 @@
       <c r="E6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -724,16 +889,22 @@
       <c r="E7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -743,193 +914,307 @@
       <c r="E9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G26" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G27" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G28" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G29" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G30" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G31" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G33" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G34" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>57</v>
       </c>
@@ -944,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38DB6F0-F956-4F4D-A80F-8C15BD21F298}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,17 +1239,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -990,7 +1275,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
